--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1543949.267172933</v>
+        <v>1648128.901624006</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103881</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>18.21673716279786</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>24.11622829077036</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>243.58790734246</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>177.0140929752134</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>9.284642680149298</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>252.1855930722039</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>28.90798465780367</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>25.63210380524279</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>105.0920173913903</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,7 +1344,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1421,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>172.026033500074</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>85.08368458989419</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>72.26558381699924</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>245.879692121443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>103.1686991936197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>151.855586233358</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.36569740310371</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.2950343703271</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>26.05480806223734</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>137.9792024346631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>28.23631843387907</v>
       </c>
       <c r="H46" t="n">
-        <v>39.17658763086913</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4325,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4351,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4398,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4483,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4519,19 +4521,19 @@
         <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1627.377462063961</v>
       </c>
       <c r="V4" t="n">
-        <v>1356.675339798491</v>
+        <v>1372.692973858074</v>
       </c>
       <c r="W4" t="n">
-        <v>1332.315513242158</v>
+        <v>1372.692973858074</v>
       </c>
       <c r="X4" t="n">
-        <v>1104.32596234414</v>
+        <v>1144.703422960057</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.32596234414</v>
+        <v>923.9108438165264</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1575.942324366272</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3036.51303901989</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3036.51303901989</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2705.450151676319</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2352.681496406205</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2352.681496406205</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1962.542164430393</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.2459535582127</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>471.2459535582127</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>321.1293141458769</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>173.2162205634838</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>173.2162205634838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>173.2162205634838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.093718466961</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.67654843</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>873.6869975319826</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.8944183884524</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>2230.937844028709</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796265</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796265</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796265</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>510.784551090019</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>95.71210093501543</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>95.71210093501543</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>584.5841306576258</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="C10" t="n">
-        <v>584.5841306576258</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>584.5841306576258</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>584.5841306576258</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>437.6941831597154</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>269.9913465344343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>584.5841306576258</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>584.5841306576258</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5035,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5179,28 +5181,28 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797747</v>
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5428,43 +5430,43 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="U16" t="n">
         <v>2273.199413378161</v>
@@ -5495,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>261.8464821474262</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,22 +5977,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3972.967823953646</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3972.967823953646</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6458,52 +6460,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>2823.935653491667</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>2654.99947056376</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7066105458823</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>4287.543133262104</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>3998.467906606302</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>3743.783418400415</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>3454.366248363454</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>3226.376697465437</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>3005.584118321907</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098242</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819173</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695815</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3896878871884</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>369.499740389278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924459</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718572</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783594</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640064</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7259,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>2798.451385364349</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>2629.515202436442</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4664.51516445694</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>4481.660330111844</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>4262.058865134785</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>3972.983638478983</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>3718.299150273097</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>3428.881980236136</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>3200.892429338119</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>2980.099850194589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3807.864035926977</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>996.5276398439761</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>827.5914569160692</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>677.4748175037334</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>529.5617239213403</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>382.6717764234299</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G46" t="n">
-        <v>215.4756771383099</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.968683817746</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1178.176104674216</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23433,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>114.1584408891701</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>55.2110282563297</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409392967</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>40.3047822678011</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>45.44677382459265</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>114.1584408891651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>40.32043864788434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="H46" t="n">
-        <v>101.1181252153547</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="13">
@@ -26314,46 +26316,46 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813238</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
@@ -26436,7 +26438,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992745.6589353344</v>
+        <v>-992745.6589353343</v>
       </c>
       <c r="C6" t="n">
-        <v>335999.0867922585</v>
+        <v>335999.0867922587</v>
       </c>
       <c r="D6" t="n">
-        <v>335999.0867922588</v>
+        <v>335999.0867922584</v>
       </c>
       <c r="E6" t="n">
-        <v>87553.20988046017</v>
+        <v>87553.20988046026</v>
       </c>
       <c r="F6" t="n">
+        <v>412965.6716878158</v>
+      </c>
+      <c r="G6" t="n">
         <v>412965.6716878155</v>
       </c>
-      <c r="G6" t="n">
-        <v>412965.6716878158</v>
-      </c>
       <c r="H6" t="n">
-        <v>412965.6716878154</v>
+        <v>412965.6716878156</v>
       </c>
       <c r="I6" t="n">
+        <v>412965.6716878156</v>
+      </c>
+      <c r="J6" t="n">
+        <v>195434.4692905381</v>
+      </c>
+      <c r="K6" t="n">
         <v>412965.6716878157</v>
-      </c>
-      <c r="J6" t="n">
-        <v>195434.4692905379</v>
-      </c>
-      <c r="K6" t="n">
-        <v>412965.6716878156</v>
       </c>
       <c r="L6" t="n">
         <v>412965.6716878155</v>
       </c>
       <c r="M6" t="n">
-        <v>327910.6437523037</v>
+        <v>327910.643752304</v>
       </c>
       <c r="N6" t="n">
+        <v>412965.6716878159</v>
+      </c>
+      <c r="O6" t="n">
         <v>412965.6716878157</v>
       </c>
-      <c r="O6" t="n">
-        <v>412965.6716878156</v>
-      </c>
       <c r="P6" t="n">
-        <v>412965.6716878153</v>
+        <v>412965.6716878157</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024417</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>279.225909459645</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>267.995101042815</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>262.4067700458206</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>139.1459343210206</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>26.90387716440674</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>135.4703722341715</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>113.0872986988036</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.66894511512228</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>141.614717293385</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.66299752293048</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28330,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28512,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31849,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>535.8585467435946</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>400.8433522134838</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>485.1127032082914</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>510.8679233250717</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>333.9544784328816</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>393.2623022991502</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>266.8689447991536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>342.516458763847</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>379.5262112417385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>191.3582339884371</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1648128.901624006</v>
+        <v>1644116.291610013</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10423407.65680423</v>
+        <v>10423407.65680422</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>75.4571321610379</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>32.23168924578622</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>18.21673716279786</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>114.2656173771016</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.58790734246</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,7 +952,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96122915361011</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>252.1855930722039</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>173.5346346387836</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>25.63210380524279</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586319</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.7084378797731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500074</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>251.5502284016991</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>72.26558381699924</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>40.96105405076426</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.155999212081729</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>151.855586233358</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>216.709402887471</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>76.95889114479607</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.05480806223734</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>105.1820732698676</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>28.23631843387907</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>923.9108438165264</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1627.377462063961</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.692973858074</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.692973858074</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1144.703422960057</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>923.9108438165264</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930992</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2230.937844028709</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1340.243929312809</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>954.4556767145648</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>652.2346852641123</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>165.6296951047725</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641123</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.2346852641123</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,19 +5059,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998291</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5442,46 +5442,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580256</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580256</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.57599612053</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>920.6398131926233</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>770.5231737802875</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>622.6100801978944</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>475.720132699984</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>308.5240334148639</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>166.812202257062</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6077,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>2588.787486630498</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>2504.882831151424</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>2504.882831151424</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2439.734801547855</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2256.879967202759</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2037.2785022257</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1748.203275569898</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1493.518787364011</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2823.935653491667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2654.99947056376</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>2504.882831151424</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>2504.882831151424</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4287.543133262104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3998.467906606302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3743.783418400415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3454.366248363454</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3226.376697465437</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3005.584118321907</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2186.371995553553</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2798.451385364349</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>2629.515202436442</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>2479.398563024106</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>2479.398563024106</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>2479.398563024106</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4664.51516445694</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4481.660330111844</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4262.058865134785</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="U40" t="n">
-        <v>3972.983638478983</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V40" t="n">
-        <v>3718.299150273097</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W40" t="n">
-        <v>3428.881980236136</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X40" t="n">
-        <v>3200.892429338119</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y40" t="n">
-        <v>2980.099850194589</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650331</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>264.0500279773688</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891701</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.5874149221289144</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.000252501566294</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409392967</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>211.1765892730637</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>59.21924749803996</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>65.54986409393027</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>9.000252501566194</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>140.4465591824922</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.32043864788434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>112.2233770574207</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.2878198583898</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="M2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="N2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26447,7 +26447,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992745.6589353343</v>
+        <v>-992745.658935334</v>
       </c>
       <c r="C6" t="n">
+        <v>335999.0867922584</v>
+      </c>
+      <c r="D6" t="n">
         <v>335999.0867922587</v>
       </c>
-      <c r="D6" t="n">
-        <v>335999.0867922584</v>
-      </c>
       <c r="E6" t="n">
-        <v>87553.20988046026</v>
+        <v>87205.83062610355</v>
       </c>
       <c r="F6" t="n">
-        <v>412965.6716878158</v>
+        <v>412618.2924334587</v>
       </c>
       <c r="G6" t="n">
-        <v>412965.6716878155</v>
+        <v>412618.2924334587</v>
       </c>
       <c r="H6" t="n">
-        <v>412965.6716878156</v>
+        <v>412618.2924334586</v>
       </c>
       <c r="I6" t="n">
-        <v>412965.6716878156</v>
+        <v>412618.2924334588</v>
       </c>
       <c r="J6" t="n">
-        <v>195434.4692905381</v>
+        <v>195087.0900361812</v>
       </c>
       <c r="K6" t="n">
-        <v>412965.6716878157</v>
+        <v>412618.2924334587</v>
       </c>
       <c r="L6" t="n">
-        <v>412965.6716878155</v>
+        <v>412618.2924334586</v>
       </c>
       <c r="M6" t="n">
-        <v>327910.643752304</v>
+        <v>327563.2644979467</v>
       </c>
       <c r="N6" t="n">
-        <v>412965.6716878159</v>
+        <v>412618.2924334586</v>
       </c>
       <c r="O6" t="n">
-        <v>412965.6716878157</v>
+        <v>412618.2924334587</v>
       </c>
       <c r="P6" t="n">
-        <v>412965.6716878157</v>
+        <v>412618.2924334587</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>279.225909459645</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>354.0062494102673</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>267.995101042815</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594894</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>139.1459343210206</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>307.2767095024435</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>113.0872986988036</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>233.3414111029279</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>141.614717293385</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>47.29464513706806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,19 +32557,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34386,10 +34386,10 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35810,7 +35810,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191269</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38034,10 +38034,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1644116.291610013</v>
+        <v>1645876.821912798</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283175</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10423407.65680422</v>
+        <v>10423407.65680423</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>187.9685985371963</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.23168924578622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771016</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>344.3795638246813</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.96122915361011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>158.0933671656953</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>173.5346346387836</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>249.5456553076233</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>98.12640288586319</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1423,13 +1423,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>130.1208074460232</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>251.5502284016991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>40.96105405076426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>33.0162797694415</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.155999212081729</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>216.709402887471</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>76.95889114479607</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>105.1820732698676</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474292</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428661</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>2535.034709923658</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4488,16 +4488,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,22 +4509,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
         <v>1722.044275313594</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1550.724918249255</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1164.936665651011</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>753.9507608614033</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.50962791956</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1340.243929312809</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>954.4556767145648</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3073.539503116623</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2742.476615773052</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2389.707960502938</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4883,10 +4883,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>463.6594280995014</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>313.5427886871656</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>165.6296951047725</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5123,19 +5123,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,40 +5998,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532803</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253734</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>209.2531439449487</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2439.734801547855</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2256.879967202759</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2037.2785022257</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1748.203275569898</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1493.518787364011</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1204.10161732705</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,25 +6925,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2186.371995553553</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1897.296768897751</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1642.612280691864</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1353.195110654903</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,19 +7186,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782988</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038375</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="T40" t="n">
-        <v>2273.672861378251</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="U40" t="n">
-        <v>1984.597634722449</v>
+        <v>2157.887856924462</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.913146516562</v>
+        <v>1903.203368718575</v>
       </c>
       <c r="W40" t="n">
-        <v>1440.495976479601</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1212.506425581584</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.7138464380538</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7414,31 +7414,31 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270493</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>16.31315520054599</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5874149221289144</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>211.1765892730637</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819331</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>107.2784330767824</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>59.21924749803996</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>9.000252501566194</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>140.4465591824922</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>112.2233770574207</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>114.1584408891618</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392193725</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.3630992041</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992041</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
@@ -26328,25 +26328,25 @@
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26447,7 +26447,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992745.658935334</v>
+        <v>-992745.6589353341</v>
       </c>
       <c r="C6" t="n">
-        <v>335999.0867922584</v>
+        <v>335999.0867922588</v>
       </c>
       <c r="D6" t="n">
-        <v>335999.0867922587</v>
+        <v>335999.0867922585</v>
       </c>
       <c r="E6" t="n">
-        <v>87205.83062610355</v>
+        <v>87518.47195502484</v>
       </c>
       <c r="F6" t="n">
-        <v>412618.2924334587</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="G6" t="n">
-        <v>412618.2924334587</v>
+        <v>412930.9337623798</v>
       </c>
       <c r="H6" t="n">
-        <v>412618.2924334586</v>
+        <v>412930.9337623797</v>
       </c>
       <c r="I6" t="n">
-        <v>412618.2924334588</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="J6" t="n">
-        <v>195087.0900361812</v>
+        <v>195399.7313651024</v>
       </c>
       <c r="K6" t="n">
-        <v>412618.2924334587</v>
+        <v>412930.9337623798</v>
       </c>
       <c r="L6" t="n">
-        <v>412618.2924334586</v>
+        <v>412930.9337623798</v>
       </c>
       <c r="M6" t="n">
-        <v>327563.2644979467</v>
+        <v>327875.9058268681</v>
       </c>
       <c r="N6" t="n">
-        <v>412618.2924334586</v>
+        <v>412930.9337623798</v>
       </c>
       <c r="O6" t="n">
-        <v>412618.2924334587</v>
+        <v>412930.9337623798</v>
       </c>
       <c r="P6" t="n">
-        <v>412618.2924334587</v>
+        <v>412930.9337623799</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>194.7652431262843</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>354.0062494102673</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594894</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>66.54216182877218</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.2767095024435</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>233.3414111029279</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.449516651278657</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>47.29464513706806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-8.041947931807411e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29432,7 +29432,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-4.63134280015893e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30653,7 +30653,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>303.4024373464761</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>307.9814458135821</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.5609983721171</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>169.427066033708</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295643</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899116</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
